--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="153">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,6 +46,9 @@
     <t>killed</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
@@ -55,322 +58,412 @@
     <t>disgusting</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>worst</t>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>stress</t>
   </si>
   <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>stress</t>
+    <t>worse</t>
   </si>
   <si>
     <t>struggling</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>recession</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>worse</t>
+    <t>panic</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>monday</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>read</t>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>consumer</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>video</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>tips</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>via</t>
   </si>
   <si>
     <t>businesses</t>
   </si>
   <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>ia</t>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>supermarket</t>
   </si>
   <si>
     <t>keep</t>
   </si>
   <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>employees</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>masks</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>dona</t>
   </si>
   <si>
     <t>market</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>take</t>
   </si>
   <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>toilet</t>
+    <t>go</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
   <si>
     <t>corona</t>
@@ -379,7 +472,7 @@
     <t>people</t>
   </si>
   <si>
-    <t>prices</t>
+    <t>food</t>
   </si>
 </sst>
 </file>
@@ -737,7 +830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:Q125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -745,10 +838,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -827,28 +920,28 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>0.9482758620689655</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -877,25 +970,25 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4">
-        <v>0.9230769230769231</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M4">
         <v>111</v>
       </c>
       <c r="N4">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -906,13 +999,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8620689655172413</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -927,28 +1020,28 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>0.8976377952755905</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="N5">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -956,13 +1049,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -974,31 +1067,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.8899082568807339</v>
+        <v>0.8984375</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="N6">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1006,13 +1099,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8421052631578947</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1024,31 +1117,31 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.8785714285714286</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L7">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="N7">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1056,13 +1149,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8082191780821918</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C8">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1074,28 +1167,28 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>0.85</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L8">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="M8">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N8">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -1106,13 +1199,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7368421052631579</v>
+        <v>0.84</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1124,31 +1217,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>0.8205128205128205</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L9">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="N9">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1156,13 +1249,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7096774193548387</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1174,31 +1267,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>0.8080808080808081</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L10">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M10">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N10">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1206,13 +1299,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1227,28 +1320,28 @@
         <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>0.8031914893617021</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="L11">
-        <v>302</v>
+        <v>53</v>
       </c>
       <c r="M11">
-        <v>309</v>
+        <v>53</v>
       </c>
       <c r="N11">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1277,28 +1370,28 @@
         <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>0.7719298245614035</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="N12">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1306,13 +1399,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1324,31 +1417,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>0.7709251101321586</v>
+        <v>0.825</v>
       </c>
       <c r="L13">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="M13">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1356,13 +1449,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5882352941176471</v>
+        <v>0.625</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1374,31 +1467,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.7640449438202247</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L14">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="M14">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="N14">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1406,7 +1499,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5483870967741935</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C15">
         <v>17</v>
@@ -1424,31 +1517,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>0.7077464788732394</v>
+        <v>0.8093994778067886</v>
       </c>
       <c r="L15">
-        <v>201</v>
+        <v>310</v>
       </c>
       <c r="M15">
-        <v>212</v>
+        <v>310</v>
       </c>
       <c r="N15">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1456,13 +1549,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5466666666666666</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C16">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1474,31 +1567,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>0.7006172839506173</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L16">
-        <v>227</v>
+        <v>74</v>
       </c>
       <c r="M16">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="N16">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1506,13 +1599,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5416666666666666</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1524,31 +1617,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K17">
-        <v>0.696969696969697</v>
+        <v>0.7824267782426778</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>187</v>
       </c>
       <c r="N17">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1556,13 +1649,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5185185185185185</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1574,31 +1667,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K18">
-        <v>0.6888888888888889</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1606,37 +1699,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4883268482490272</v>
+        <v>0.5329457364341085</v>
       </c>
       <c r="C19">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="D19">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="E19">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K19">
-        <v>0.6595744680851063</v>
+        <v>0.7186440677966102</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>212</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>212</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1648,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1656,13 +1749,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3529411764705883</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1674,31 +1767,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>0.6588235294117647</v>
+        <v>0.7176470588235294</v>
       </c>
       <c r="L20">
-        <v>56</v>
+        <v>244</v>
       </c>
       <c r="M20">
-        <v>60</v>
+        <v>244</v>
       </c>
       <c r="N20">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1706,13 +1799,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2077922077922078</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1724,19 +1817,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K21">
-        <v>0.6031746031746031</v>
+        <v>0.6966292134831461</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1748,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1756,37 +1849,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1415929203539823</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="E22">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K22">
-        <v>0.5555555555555556</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1798,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1806,99 +1899,75 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0166369578134284</v>
+        <v>0.1275167785234899</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>488</v>
+        <v>19</v>
       </c>
       <c r="E23">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1655</v>
+        <v>130</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K23">
-        <v>0.5483870967741935</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M23">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N23">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.01178861788617886</v>
-      </c>
-      <c r="C24">
-        <v>29</v>
-      </c>
-      <c r="D24">
-        <v>676</v>
-      </c>
-      <c r="E24">
-        <v>0.96</v>
-      </c>
-      <c r="F24">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>2431</v>
-      </c>
       <c r="J24" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K24">
-        <v>0.5238095238095238</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N24">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1906,25 +1975,25 @@
         <v>52</v>
       </c>
       <c r="K25">
-        <v>0.5189873417721519</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L25">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1932,25 +2001,25 @@
         <v>53</v>
       </c>
       <c r="K26">
-        <v>0.5052631578947369</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L26">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N26">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1958,25 +2027,25 @@
         <v>54</v>
       </c>
       <c r="K27">
-        <v>0.4802955665024631</v>
+        <v>0.6043956043956044</v>
       </c>
       <c r="L27">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="M27">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>211</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1984,13 +2053,13 @@
         <v>55</v>
       </c>
       <c r="K28">
-        <v>0.4608695652173913</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L28">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2002,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2010,25 +2079,25 @@
         <v>56</v>
       </c>
       <c r="K29">
-        <v>0.4545454545454545</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L29">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="N29">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>114</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2036,13 +2105,13 @@
         <v>57</v>
       </c>
       <c r="K30">
-        <v>0.4509803921568628</v>
+        <v>0.5625</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2062,25 +2131,25 @@
         <v>58</v>
       </c>
       <c r="K31">
-        <v>0.4375</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M31">
         <v>15</v>
       </c>
       <c r="N31">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2088,25 +2157,25 @@
         <v>59</v>
       </c>
       <c r="K32">
-        <v>0.4347826086956522</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L32">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>91</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2114,13 +2183,13 @@
         <v>60</v>
       </c>
       <c r="K33">
-        <v>0.417910447761194</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2132,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2140,25 +2209,25 @@
         <v>61</v>
       </c>
       <c r="K34">
-        <v>0.4</v>
+        <v>0.5130434782608696</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="N34">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2166,25 +2235,25 @@
         <v>62</v>
       </c>
       <c r="K35">
-        <v>0.4</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L35">
         <v>24</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N35">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2192,13 +2261,13 @@
         <v>63</v>
       </c>
       <c r="K36">
-        <v>0.390625</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2210,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2218,25 +2287,25 @@
         <v>64</v>
       </c>
       <c r="K37">
-        <v>0.3829787234042553</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N37">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2244,25 +2313,25 @@
         <v>65</v>
       </c>
       <c r="K38">
-        <v>0.3739669421487603</v>
+        <v>0.5051546391752577</v>
       </c>
       <c r="L38">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c r="M38">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="N38">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>303</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2270,7 +2339,7 @@
         <v>66</v>
       </c>
       <c r="K39">
-        <v>0.3714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="L39">
         <v>13</v>
@@ -2288,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2296,25 +2365,25 @@
         <v>67</v>
       </c>
       <c r="K40">
-        <v>0.3703703703703703</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="L40">
+        <v>29</v>
+      </c>
+      <c r="M40">
+        <v>29</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>30</v>
-      </c>
-      <c r="M40">
-        <v>31</v>
-      </c>
-      <c r="N40">
-        <v>0.97</v>
-      </c>
-      <c r="O40">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>51</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2322,25 +2391,25 @@
         <v>68</v>
       </c>
       <c r="K41">
-        <v>0.356687898089172</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="L41">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="M41">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="N41">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>101</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2348,13 +2417,13 @@
         <v>69</v>
       </c>
       <c r="K42">
-        <v>0.3559322033898305</v>
+        <v>0.4907975460122699</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="M42">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2366,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>38</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2374,13 +2443,13 @@
         <v>70</v>
       </c>
       <c r="K43">
-        <v>0.3555555555555556</v>
+        <v>0.4880382775119617</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2392,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>29</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2400,25 +2469,25 @@
         <v>71</v>
       </c>
       <c r="K44">
-        <v>0.3516483516483517</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L44">
+        <v>29</v>
+      </c>
+      <c r="M44">
+        <v>29</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>32</v>
-      </c>
-      <c r="M44">
-        <v>32</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>59</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2426,25 +2495,25 @@
         <v>72</v>
       </c>
       <c r="K45">
-        <v>0.3464373464373464</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="L45">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="M45">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="N45">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>266</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2452,25 +2521,25 @@
         <v>73</v>
       </c>
       <c r="K46">
-        <v>0.3428571428571429</v>
+        <v>0.4604651162790698</v>
       </c>
       <c r="L46">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="M46">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="N46">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>46</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2478,13 +2547,13 @@
         <v>74</v>
       </c>
       <c r="K47">
-        <v>0.3220338983050847</v>
+        <v>0.4477611940298508</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="M47">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2496,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2504,25 +2573,25 @@
         <v>75</v>
       </c>
       <c r="K48">
-        <v>0.3213114754098361</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L48">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="N48">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>207</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2530,25 +2599,25 @@
         <v>76</v>
       </c>
       <c r="K49">
-        <v>0.3195876288659794</v>
+        <v>0.425</v>
       </c>
       <c r="L49">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M49">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2556,22 +2625,22 @@
         <v>77</v>
       </c>
       <c r="K50">
-        <v>0.3185185185185185</v>
+        <v>0.4213836477987422</v>
       </c>
       <c r="L50">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="M50">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
         <v>92</v>
@@ -2582,25 +2651,25 @@
         <v>78</v>
       </c>
       <c r="K51">
-        <v>0.3118279569892473</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="L51">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="M51">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="N51">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2608,25 +2677,25 @@
         <v>79</v>
       </c>
       <c r="K52">
-        <v>0.3</v>
+        <v>0.4135802469135803</v>
       </c>
       <c r="L52">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="M52">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="N52">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>91</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2634,25 +2703,25 @@
         <v>80</v>
       </c>
       <c r="K53">
-        <v>0.2987012987012987</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="L53">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M53">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N53">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2660,25 +2729,25 @@
         <v>81</v>
       </c>
       <c r="K54">
-        <v>0.2979351032448377</v>
+        <v>0.4024390243902439</v>
       </c>
       <c r="L54">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="M54">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="N54">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>238</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2686,25 +2755,25 @@
         <v>82</v>
       </c>
       <c r="K55">
-        <v>0.2957746478873239</v>
+        <v>0.4</v>
       </c>
       <c r="L55">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N55">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2712,25 +2781,25 @@
         <v>83</v>
       </c>
       <c r="K56">
-        <v>0.2945736434108527</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L56">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N56">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2738,25 +2807,25 @@
         <v>84</v>
       </c>
       <c r="K57">
-        <v>0.2941176470588235</v>
+        <v>0.3859649122807017</v>
       </c>
       <c r="L57">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="M57">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="N57">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>624</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2764,25 +2833,25 @@
         <v>85</v>
       </c>
       <c r="K58">
-        <v>0.2926829268292683</v>
+        <v>0.3759398496240601</v>
       </c>
       <c r="L58">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M58">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N58">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2790,25 +2859,25 @@
         <v>86</v>
       </c>
       <c r="K59">
-        <v>0.2826086956521739</v>
+        <v>0.3740458015267176</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="N59">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2816,13 +2885,13 @@
         <v>87</v>
       </c>
       <c r="K60">
-        <v>0.282051282051282</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="L60">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M60">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2834,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2842,13 +2911,13 @@
         <v>88</v>
       </c>
       <c r="K61">
-        <v>0.2695652173913043</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L61">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="M61">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2860,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>168</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2868,25 +2937,25 @@
         <v>89</v>
       </c>
       <c r="K62">
-        <v>0.2685185185185185</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L62">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M62">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N62">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2894,13 +2963,13 @@
         <v>90</v>
       </c>
       <c r="K63">
-        <v>0.2672413793103448</v>
+        <v>0.3533653846153846</v>
       </c>
       <c r="L63">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="M63">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2912,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>85</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2920,13 +2989,13 @@
         <v>91</v>
       </c>
       <c r="K64">
-        <v>0.2631578947368421</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L64">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="M64">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2938,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>42</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2946,25 +3015,25 @@
         <v>92</v>
       </c>
       <c r="K65">
-        <v>0.2580645161290323</v>
+        <v>0.3445378151260504</v>
       </c>
       <c r="L65">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M65">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N65">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2972,25 +3041,25 @@
         <v>93</v>
       </c>
       <c r="K66">
-        <v>0.2463605823068309</v>
+        <v>0.3441860465116279</v>
       </c>
       <c r="L66">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="M66">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="N66">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>673</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2998,13 +3067,13 @@
         <v>94</v>
       </c>
       <c r="K67">
-        <v>0.2448979591836735</v>
+        <v>0.3417721518987342</v>
       </c>
       <c r="L67">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M67">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3016,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>111</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -3024,25 +3093,25 @@
         <v>95</v>
       </c>
       <c r="K68">
-        <v>0.2394366197183098</v>
+        <v>0.3402061855670103</v>
       </c>
       <c r="L68">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="M68">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="N68">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>162</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -3050,13 +3119,13 @@
         <v>96</v>
       </c>
       <c r="K69">
-        <v>0.2318840579710145</v>
+        <v>0.34</v>
       </c>
       <c r="L69">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M69">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3068,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -3076,91 +3145,91 @@
         <v>97</v>
       </c>
       <c r="K70">
-        <v>0.23</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="L70">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="M70">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="N70">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>77</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="K71">
-        <v>0.2174940898345154</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L71">
-        <v>460</v>
+        <v>49</v>
       </c>
       <c r="M71">
-        <v>488</v>
+        <v>49</v>
       </c>
       <c r="N71">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>1655</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="K72">
-        <v>0.2102014294996751</v>
+        <v>0.329512893982808</v>
       </c>
       <c r="L72">
-        <v>647</v>
+        <v>115</v>
       </c>
       <c r="M72">
-        <v>676</v>
+        <v>115</v>
       </c>
       <c r="N72">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>2431</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K73">
-        <v>0.2097902097902098</v>
+        <v>0.3284671532846715</v>
       </c>
       <c r="L73">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M73">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3172,47 +3241,47 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K74">
-        <v>0.2</v>
+        <v>0.3266219239373602</v>
       </c>
       <c r="L74">
-        <v>13</v>
+        <v>292</v>
       </c>
       <c r="M74">
-        <v>14</v>
+        <v>292</v>
       </c>
       <c r="N74">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>52</v>
+        <v>602</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K75">
-        <v>0.1842105263157895</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="L75">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M75">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3224,73 +3293,73 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K76">
-        <v>0.1818181818181818</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="L76">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M76">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N76">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K77">
-        <v>0.1810344827586207</v>
+        <v>0.3125</v>
       </c>
       <c r="L77">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M77">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N77">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K78">
-        <v>0.1774193548387097</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L78">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M78">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3302,21 +3371,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K79">
-        <v>0.1722846441947566</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L79">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="M79">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3328,177 +3397,177 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>221</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K80">
-        <v>0.1636363636363636</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="L80">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M80">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N80">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K81">
-        <v>0.1617647058823529</v>
+        <v>0.3</v>
       </c>
       <c r="L81">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M81">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N81">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>114</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K82">
-        <v>0.160377358490566</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="L82">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M82">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N82">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K83">
-        <v>0.1538461538461539</v>
+        <v>0.2946428571428572</v>
       </c>
       <c r="L83">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M83">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N83">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K84">
-        <v>0.1509433962264151</v>
+        <v>0.2918978912319645</v>
       </c>
       <c r="L84">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="M84">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c r="N84">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>90</v>
+        <v>638</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K85">
-        <v>0.1446808510638298</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L85">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M85">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N85">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>201</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K86">
-        <v>0.1327433628318584</v>
+        <v>0.290519877675841</v>
       </c>
       <c r="L86">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="M86">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3510,177 +3579,177 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>98</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K87">
-        <v>0.125</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L87">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M87">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N87">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>112</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K88">
-        <v>0.1181102362204724</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="L88">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M88">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N88">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>112</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K89">
-        <v>0.09239130434782608</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L89">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M89">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N89">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>167</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K90">
-        <v>0.09230769230769231</v>
+        <v>0.2677165354330709</v>
       </c>
       <c r="L90">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M90">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N90">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>295</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K91">
-        <v>0.05882352941176471</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="L91">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M91">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="N91">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>608</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K92">
-        <v>0.05542725173210162</v>
+        <v>0.2652075957515288</v>
       </c>
       <c r="L92">
-        <v>48</v>
+        <v>824</v>
       </c>
       <c r="M92">
-        <v>49</v>
+        <v>824</v>
       </c>
       <c r="N92">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>818</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K93">
-        <v>0.054673721340388</v>
+        <v>0.2641509433962264</v>
       </c>
       <c r="L93">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M93">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3692,85 +3761,839 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>536</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K94">
-        <v>0.034375</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="L94">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="M94">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="N94">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>3090</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K95">
-        <v>0.02941176470588235</v>
+        <v>0.2538497433504433</v>
       </c>
       <c r="L95">
-        <v>16</v>
+        <v>544</v>
       </c>
       <c r="M95">
-        <v>17</v>
+        <v>544</v>
       </c>
       <c r="N95">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>528</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K96">
-        <v>0.02327586206896552</v>
+        <v>0.25</v>
       </c>
       <c r="L96">
+        <v>18</v>
+      </c>
+      <c r="M96">
+        <v>18</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="10:17">
+      <c r="J97" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K97">
+        <v>0.2477064220183486</v>
+      </c>
+      <c r="L97">
         <v>27</v>
       </c>
-      <c r="M96">
-        <v>28</v>
-      </c>
-      <c r="N96">
-        <v>0.96</v>
-      </c>
-      <c r="O96">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P96" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q96">
-        <v>1133</v>
+      <c r="M97">
+        <v>27</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="10:17">
+      <c r="J98" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K98">
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="L98">
+        <v>33</v>
+      </c>
+      <c r="M98">
+        <v>33</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="10:17">
+      <c r="J99" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K99">
+        <v>0.2389380530973451</v>
+      </c>
+      <c r="L99">
+        <v>27</v>
+      </c>
+      <c r="M99">
+        <v>27</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="10:17">
+      <c r="J100" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K100">
+        <v>0.2324324324324324</v>
+      </c>
+      <c r="L100">
+        <v>43</v>
+      </c>
+      <c r="M100">
+        <v>43</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="10:17">
+      <c r="J101" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K101">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="L101">
+        <v>14</v>
+      </c>
+      <c r="M101">
+        <v>14</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="10:17">
+      <c r="J102" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K102">
+        <v>0.2209737827715356</v>
+      </c>
+      <c r="L102">
+        <v>59</v>
+      </c>
+      <c r="M102">
+        <v>59</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="10:17">
+      <c r="J103" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K103">
+        <v>0.2123076923076923</v>
+      </c>
+      <c r="L103">
+        <v>138</v>
+      </c>
+      <c r="M103">
+        <v>138</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="104" spans="10:17">
+      <c r="J104" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K104">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="L104">
+        <v>24</v>
+      </c>
+      <c r="M104">
+        <v>24</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="10:17">
+      <c r="J105" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K105">
+        <v>0.2045855379188712</v>
+      </c>
+      <c r="L105">
+        <v>116</v>
+      </c>
+      <c r="M105">
+        <v>116</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="106" spans="10:17">
+      <c r="J106" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K106">
+        <v>0.1983122362869198</v>
+      </c>
+      <c r="L106">
+        <v>47</v>
+      </c>
+      <c r="M106">
+        <v>47</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="107" spans="10:17">
+      <c r="J107" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K107">
+        <v>0.1842105263157895</v>
+      </c>
+      <c r="L107">
+        <v>14</v>
+      </c>
+      <c r="M107">
+        <v>14</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="108" spans="10:17">
+      <c r="J108" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K108">
+        <v>0.1743119266055046</v>
+      </c>
+      <c r="L108">
+        <v>19</v>
+      </c>
+      <c r="M108">
+        <v>19</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="10:17">
+      <c r="J109" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K109">
+        <v>0.1649365628604383</v>
+      </c>
+      <c r="L109">
+        <v>143</v>
+      </c>
+      <c r="M109">
+        <v>143</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="110" spans="10:17">
+      <c r="J110" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K110">
+        <v>0.1612903225806452</v>
+      </c>
+      <c r="L110">
+        <v>20</v>
+      </c>
+      <c r="M110">
+        <v>20</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" spans="10:17">
+      <c r="J111" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K111">
+        <v>0.1569767441860465</v>
+      </c>
+      <c r="L111">
+        <v>27</v>
+      </c>
+      <c r="M111">
+        <v>27</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="10:17">
+      <c r="J112" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K112">
+        <v>0.1559633027522936</v>
+      </c>
+      <c r="L112">
+        <v>17</v>
+      </c>
+      <c r="M112">
+        <v>17</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" spans="10:17">
+      <c r="J113" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K113">
+        <v>0.1477272727272727</v>
+      </c>
+      <c r="L113">
+        <v>13</v>
+      </c>
+      <c r="M113">
+        <v>13</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="10:17">
+      <c r="J114" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K114">
+        <v>0.134020618556701</v>
+      </c>
+      <c r="L114">
+        <v>13</v>
+      </c>
+      <c r="M114">
+        <v>13</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="10:17">
+      <c r="J115" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K115">
+        <v>0.1317829457364341</v>
+      </c>
+      <c r="L115">
+        <v>17</v>
+      </c>
+      <c r="M115">
+        <v>17</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="10:17">
+      <c r="J116" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K116">
+        <v>0.12</v>
+      </c>
+      <c r="L116">
+        <v>27</v>
+      </c>
+      <c r="M116">
+        <v>27</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="117" spans="10:17">
+      <c r="J117" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K117">
+        <v>0.1143790849673203</v>
+      </c>
+      <c r="L117">
+        <v>35</v>
+      </c>
+      <c r="M117">
+        <v>35</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="118" spans="10:17">
+      <c r="J118" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K118">
+        <v>0.1015625</v>
+      </c>
+      <c r="L118">
+        <v>13</v>
+      </c>
+      <c r="M118">
+        <v>13</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="10:17">
+      <c r="J119" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K119">
+        <v>0.075</v>
+      </c>
+      <c r="L119">
+        <v>27</v>
+      </c>
+      <c r="M119">
+        <v>27</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="120" spans="10:17">
+      <c r="J120" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K120">
+        <v>0.05652173913043478</v>
+      </c>
+      <c r="L120">
+        <v>13</v>
+      </c>
+      <c r="M120">
+        <v>13</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="121" spans="10:17">
+      <c r="J121" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K121">
+        <v>0.0498220640569395</v>
+      </c>
+      <c r="L121">
+        <v>14</v>
+      </c>
+      <c r="M121">
+        <v>14</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="122" spans="10:17">
+      <c r="J122" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K122">
+        <v>0.04651162790697674</v>
+      </c>
+      <c r="L122">
+        <v>54</v>
+      </c>
+      <c r="M122">
+        <v>54</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="123" spans="10:17">
+      <c r="J123" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K123">
+        <v>0.04561074664167448</v>
+      </c>
+      <c r="L123">
+        <v>146</v>
+      </c>
+      <c r="M123">
+        <v>146</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="124" spans="10:17">
+      <c r="J124" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K124">
+        <v>0.02385321100917431</v>
+      </c>
+      <c r="L124">
+        <v>13</v>
+      </c>
+      <c r="M124">
+        <v>13</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="125" spans="10:17">
+      <c r="J125" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K125">
+        <v>0.02169421487603306</v>
+      </c>
+      <c r="L125">
+        <v>21</v>
+      </c>
+      <c r="M125">
+        <v>21</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>947</v>
       </c>
     </row>
   </sheetData>
